--- a/data_struct/simlock配.xlsx
+++ b/data_struct/simlock配.xlsx
@@ -34,6 +34,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>One item for a whole. Maybe sort it in building is a good choice.</t>
         </r>
@@ -46,6 +47,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>This should be set in runtime. Get data from nv.</t>
         </r>
@@ -58,6 +60,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>No this requirement by now.</t>
         </r>
@@ -80,6 +83,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Less than 1536 bytes</t>
         </r>
@@ -92,6 +96,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Less than 128</t>
         </r>
@@ -102,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t xml:space="preserve">field</t>
   </si>
@@ -201,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">magic=0xA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chipset_type</t>
   </si>
   <si>
     <t xml:space="preserve">version ma</t>
@@ -279,16 +287,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -310,36 +318,42 @@
       <color rgb="FFFF3300"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF009933"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,12 +470,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,7 +495,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,7 +511,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,7 +531,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,6 +585,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -589,7 +607,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,13 +704,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.9948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,387 +1961,407 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="52.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="31" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="31" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="31" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="32" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="31" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="31" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="32" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0"/>
+    </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="31" t="s">
@@ -2329,43 +2369,48 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="31" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="32" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2386,320 +2431,320 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="A8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="D13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="A14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="A15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="C22" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="A24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="A25" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2731,7 +2776,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data_struct/simlock配.xlsx
+++ b/data_struct/simlock配.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="simlock配" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="G7" authorId="0">
@@ -36,7 +36,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>One item for a whole. Maybe sort it in building is a good choice.</t>
+          <t xml:space="preserve">One item for a whole. Maybe sort it in building is a good choice.</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>This should be set in runtime. Get data from nv.</t>
+          <t xml:space="preserve">This should be set in runtime. Get data from nv.</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>No this requirement by now.</t>
+          <t xml:space="preserve">No this requirement by now.</t>
         </r>
       </text>
     </comment>
@@ -73,7 +73,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A20" authorId="0">
@@ -85,7 +85,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Less than 1536 bytes</t>
+          <t xml:space="preserve">Less than 1536 bytes</t>
         </r>
       </text>
     </comment>
@@ -98,7 +98,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Less than 128</t>
+          <t xml:space="preserve">Less than 128</t>
         </r>
       </text>
     </comment>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t xml:space="preserve">field</t>
   </si>
@@ -226,52 +226,58 @@
     <t xml:space="preserve">reserved</t>
   </si>
   <si>
+    <t xml:space="preserve">slot_count(&lt;SIMLOCK_SLOT_NUM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(slot_count*slot_config_data) bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsa_sig_magic=0x55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsa_sig_len</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsa_sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot_config_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot_config_data_magic=0x5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simlock_category_enum_count(&lt;=SIMLOCK_CATEGORY_3GPP2_RUIM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(simlock_category_enum_count*simlock_category_data) bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simlock_category_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simlock_category_data_magic=0xAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_blacklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retry times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_data: contain simlock_category_enum_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magic</t>
+  </si>
+  <si>
     <t xml:space="preserve">slot_count</t>
   </si>
   <si>
-    <t xml:space="preserve">(slot_count*slot_config_data) bytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsa_sig_magic=0x55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsa_sig_len</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsa_sig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slot_config_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slot_config_data_magic=0x5A</t>
-  </si>
-  <si>
     <t xml:space="preserve">simlock_category_enum_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(simlock_category_enum_count*simlock_category_data) bytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simlock_category_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simlock_category_data_magic=0xAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto_lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_blacklist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retry times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code_data: contain simlock_category_enum_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magic</t>
   </si>
   <si>
     <t xml:space="preserve">code_data_size</t>
@@ -698,17 +704,17 @@
   </sheetPr>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,7 +1953,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1963,21 +1969,21 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="29" width="51.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2416,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2425,13 +2431,13 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,7 +2520,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="35" t="s">
@@ -2584,7 +2590,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -2704,7 +2710,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -2716,7 +2722,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -2776,7 +2782,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
